--- a/Filtered_By_Region/Region IX/Region IX_GABALDON.xlsx
+++ b/Filtered_By_Region/Region IX/Region IX_GABALDON.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT10"/>
+  <dimension ref="A1:AU10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,6 +669,11 @@
           <t>Unnamed: 45</t>
         </is>
       </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -782,7 +788,6 @@
           <t>Zamboanga 3VC Constrution,INC.</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
@@ -819,16 +824,11 @@
       <c r="AM2" t="n">
         <v>0</v>
       </c>
-      <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -948,7 +948,6 @@
           <t>Zamboanga 3VC Constrution,INC.</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="n">
         <v>0</v>
       </c>
@@ -985,16 +984,11 @@
       <c r="AM3" t="n">
         <v>0</v>
       </c>
-      <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1114,7 +1108,6 @@
           <t>Zamboanga 3VC Constrution,INC.</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="n">
         <v>0</v>
       </c>
@@ -1151,7 +1144,6 @@
       <c r="AM4" t="n">
         <v>0</v>
       </c>
-      <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -1162,9 +1154,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1234,7 +1223,7 @@
       <c r="P5" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="Q5" s="3" t="n">
         <v>45118</v>
       </c>
       <c r="R5" t="inlineStr">
@@ -1252,7 +1241,7 @@
           <t>CB-2023-007</t>
         </is>
       </c>
-      <c r="U5" s="2" t="n">
+      <c r="U5" s="3" t="n">
         <v>45050</v>
       </c>
       <c r="V5" t="inlineStr">
@@ -1270,7 +1259,7 @@
           <t>5/30/2023</t>
         </is>
       </c>
-      <c r="Y5" s="2" t="n">
+      <c r="Y5" s="3" t="n">
         <v>45113</v>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1278,7 +1267,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
@@ -1315,7 +1303,6 @@
       <c r="AM5" t="n">
         <v>0</v>
       </c>
-      <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="n">
         <v>5.24</v>
       </c>
@@ -1329,8 +1316,6 @@
           <t>cy 2024</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1400,7 +1385,7 @@
       <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="Q6" s="3" t="n">
         <v>45027</v>
       </c>
       <c r="R6" t="inlineStr">
@@ -1428,7 +1413,7 @@
           <t>4/26/2023</t>
         </is>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="W6" s="3" t="n">
         <v>45143</v>
       </c>
       <c r="X6" t="inlineStr">
@@ -1446,7 +1431,6 @@
           <t>ASCS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
@@ -1483,7 +1467,6 @@
       <c r="AM6" t="n">
         <v>0</v>
       </c>
-      <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="n">
         <v>2.24</v>
       </c>
@@ -1497,8 +1480,6 @@
           <t>cy 2024</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1570,7 +1551,7 @@
       <c r="P7" t="n">
         <v>0.8</v>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="Q7" s="3" t="n">
         <v>45694</v>
       </c>
       <c r="R7" t="inlineStr">
@@ -1593,7 +1574,7 @@
           <t>8/22/2024</t>
         </is>
       </c>
-      <c r="V7" s="2" t="n">
+      <c r="V7" s="3" t="n">
         <v>45546</v>
       </c>
       <c r="W7" t="inlineStr">
@@ -1606,7 +1587,7 @@
           <t>10/16/2024</t>
         </is>
       </c>
-      <c r="Y7" s="2" t="n">
+      <c r="Y7" s="3" t="n">
         <v>45717</v>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1655,15 +1636,11 @@
       <c r="AM7" t="n">
         <v>0</v>
       </c>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="n">
         <v>10</v>
       </c>
@@ -1831,14 +1808,11 @@
       <c r="AM8" t="n">
         <v>0</v>
       </c>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="n">
         <v>1</v>
       </c>
@@ -2007,15 +1981,11 @@
       <c r="AM9" t="n">
         <v>0</v>
       </c>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="n">
         <v>3</v>
       </c>
@@ -2181,21 +2151,90 @@
       <c r="AM10" t="n">
         <v>0</v>
       </c>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="n">
         <v>3</v>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
           <t>Ongoing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AU2:AU10" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/Region IX/Region IX_GABALDON.xlsx
+++ b/Filtered_By_Region/Region IX/Region IX_GABALDON.xlsx
@@ -788,41 +788,8 @@
           <t>Zamboanga 3VC Constrution,INC.</t>
         </is>
       </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
       <c r="AL2" t="n">
         <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
@@ -948,41 +915,8 @@
           <t>Zamboanga 3VC Constrution,INC.</t>
         </is>
       </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1</v>
-      </c>
       <c r="AL3" t="n">
         <v>1</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
@@ -1108,41 +1042,8 @@
           <t>Zamboanga 3VC Constrution,INC.</t>
         </is>
       </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1</v>
-      </c>
       <c r="AL4" t="n">
         <v>1</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
@@ -1267,41 +1168,8 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1</v>
-      </c>
       <c r="AL5" t="n">
         <v>1</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
       </c>
       <c r="AO5" t="n">
         <v>5.24</v>
@@ -1431,41 +1299,8 @@
           <t>ASCS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1</v>
-      </c>
       <c r="AL6" t="n">
         <v>1</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
       </c>
       <c r="AO6" t="n">
         <v>2.24</v>
@@ -1600,41 +1435,8 @@
           <t>ON-GOING</t>
         </is>
       </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
       <c r="AL7" t="n">
         <v>0.8</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
@@ -1772,40 +1574,7 @@
           <t>With RTA waiting for SARO</t>
         </is>
       </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
       <c r="AL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AP8" t="inlineStr">
@@ -1945,41 +1714,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
       <c r="AL9" t="n">
         <v>0.85</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
@@ -2115,41 +1851,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
       <c r="AL10" t="n">
         <v>0.9</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
       </c>
       <c r="AP10" t="inlineStr">
         <is>

--- a/Filtered_By_Region/Region IX/Region IX_GABALDON.xlsx
+++ b/Filtered_By_Region/Region IX/Region IX_GABALDON.xlsx
@@ -58,13 +58,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU10"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,1303 +576,1069 @@
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Reverted</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Not yet started</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Under Procurement</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites On Going</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Completed</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>No. of bldg Reverted</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>No. of bldg Not yet started</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>No. of bldg Under Procurement</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>No. of bldg On Going</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>No. of bldg Completed</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>PREVIOUS ACCOMPLISHMENT</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>DIFFERENCE</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Projected Date of Completion</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Month Completed</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Implementing Unit</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>BBM TERM COMPLETED</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>AWAITING SUBMISSION OF RTA</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>batch of suballotment</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
+      <c r="AB1" s="3" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="4" t="n">
         <v>126121</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>Curuan CS</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="H2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="J2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" s="4" t="n">
         <v>5000000</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="M2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4" t="n">
         <v>4750000</v>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="P2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="inlineStr">
         <is>
           <t>January 31,2022</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>February 8,2022</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>ZC-GAB-2020-B</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" s="4" t="inlineStr">
         <is>
           <t>ZC-GAB-2020-B</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>May 3, 2021</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V2" s="4" t="inlineStr">
         <is>
           <t>May 17, 2021</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="W2" s="4" t="inlineStr">
         <is>
           <t>May 31,2021</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="X2" s="4" t="inlineStr">
         <is>
           <t>July 8, 2021</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>July 30,2021</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="Z2" s="4" t="inlineStr">
         <is>
           <t>Zamboanga 3VC Constrution,INC.</t>
         </is>
       </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AA2" s="4" t="inlineStr"/>
+      <c r="AB2" s="4" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="4" t="n">
         <v>126189</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>Mercedes CS</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="H3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="J3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="4" t="n">
         <v>8000000</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="M3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4" t="n">
         <v>7600000</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="P3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4" t="inlineStr">
         <is>
           <t>January 31,2022</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R3" s="4" t="inlineStr">
         <is>
           <t>February 5,2022</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" s="4" t="inlineStr">
         <is>
           <t>ZC-GAB-2020-A</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T3" s="4" t="inlineStr">
         <is>
           <t>ZC-GAB-2020-A</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" s="4" t="inlineStr">
         <is>
           <t>May 3, 2021</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="V3" s="4" t="inlineStr">
         <is>
           <t>May 17, 2021</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="W3" s="4" t="inlineStr">
         <is>
           <t>May 31,2021</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="X3" s="4" t="inlineStr">
         <is>
           <t>July 8, 2021</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Y3" s="4" t="inlineStr">
         <is>
           <t>July 30,2021</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="Z3" s="4" t="inlineStr">
         <is>
           <t>Zamboanga 3VC Constrution,INC.</t>
         </is>
       </c>
-      <c r="AL3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AA3" s="4" t="inlineStr"/>
+      <c r="AB3" s="4" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="4" t="n">
         <v>126226</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Mampang Elementary School</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>ZAMBOANGA CITY</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="4" t="n">
         <v>5000000</v>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="M4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4" t="n">
         <v>4995000</v>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="P4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4" t="inlineStr">
         <is>
           <t>January 31,2022</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R4" s="4" t="inlineStr">
         <is>
           <t>November 30,2021</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" s="4" t="inlineStr">
         <is>
           <t>ZC-GAB-2021</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T4" s="4" t="inlineStr">
         <is>
           <t>ZC-GAB-2021</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" s="4" t="inlineStr">
         <is>
           <t>May 3, 2021</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="V4" s="4" t="inlineStr">
         <is>
           <t>May 17, 2021</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="W4" s="4" t="inlineStr">
         <is>
           <t>May 31,2021</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="X4" s="4" t="inlineStr">
         <is>
           <t>July 8, 2021</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y4" s="4" t="inlineStr">
         <is>
           <t>July 30,2021</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="Z4" s="4" t="inlineStr">
         <is>
           <t>Zamboanga 3VC Constrution,INC.</t>
         </is>
       </c>
-      <c r="AL4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AA4" s="4" t="inlineStr"/>
+      <c r="AB4" s="4" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="4" t="n">
         <v>124369</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>Katipunan Central School</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>KATIPUNAN</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="4" t="n">
         <v>17112890.01</v>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="M5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4" t="n">
         <v>17093932.97</v>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="3" t="n">
+      <c r="P5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5" t="n">
         <v>45118</v>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R5" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" s="4" t="inlineStr">
         <is>
           <t>2023-7-CBZN</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T5" s="4" t="inlineStr">
         <is>
           <t>CB-2023-007</t>
         </is>
       </c>
-      <c r="U5" s="3" t="n">
+      <c r="U5" s="5" t="n">
         <v>45050</v>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="V5" s="4" t="inlineStr">
         <is>
           <t>4/14/2023</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="W5" s="4" t="inlineStr">
         <is>
           <t>4/27/2023</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="X5" s="4" t="inlineStr">
         <is>
           <t>5/30/2023</t>
         </is>
       </c>
-      <c r="Y5" s="3" t="n">
+      <c r="Y5" s="5" t="n">
         <v>45113</v>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="Z5" s="4" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AL5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>cy 2024</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AA5" s="4" t="inlineStr"/>
+      <c r="AB5" s="4" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="4" t="n">
         <v>125371</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>San Pablo CES</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>SAN PABLO</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="J6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="4" t="n">
         <v>4907365.3</v>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="M6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4" t="n">
         <v>4877195.13</v>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O6" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="3" t="n">
+      <c r="P6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5" t="n">
         <v>45027</v>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R6" s="4" t="inlineStr">
         <is>
           <t>November 4, 2023</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S6" s="4" t="inlineStr">
         <is>
           <t>ZDS-23-RG-01</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T6" s="4" t="inlineStr">
         <is>
           <t>ZDS-23-RG-01</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" s="4" t="inlineStr">
         <is>
           <t>4/13/2023</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="V6" s="4" t="inlineStr">
         <is>
           <t>4/26/2023</t>
         </is>
       </c>
-      <c r="W6" s="3" t="n">
+      <c r="W6" s="5" t="n">
         <v>45143</v>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="X6" s="4" t="inlineStr">
         <is>
           <t>5/22/2023</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Y6" s="4" t="inlineStr">
         <is>
           <t>5/31/2023</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="Z6" s="4" t="inlineStr">
         <is>
           <t>ASCS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AL6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>cy 2024</t>
-        </is>
-      </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AA6" s="4" t="inlineStr"/>
+      <c r="AB6" s="4" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Dapitan City</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="4" t="n">
         <v>125916</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Ilaya Elementary School</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>DAPITAN CITY</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="4" t="n">
         <v>5000000</v>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="M7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4" t="n">
         <v>4956744.84</v>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P7" t="n">
+      <c r="P7" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="Q7" s="3" t="n">
+      <c r="Q7" s="5" t="n">
         <v>45694</v>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>CY2024-10-12</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>CY2024-10-12</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>8/22/2024</t>
         </is>
       </c>
-      <c r="V7" s="3" t="n">
+      <c r="V7" s="5" t="n">
         <v>45546</v>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>9/25/2024</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>10/16/2024</t>
         </is>
       </c>
-      <c r="Y7" s="3" t="n">
+      <c r="Y7" s="5" t="n">
         <v>45717</v>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Stars and Stripes Construction</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AA7" s="4" t="inlineStr">
         <is>
           <t>ON-GOING</t>
         </is>
       </c>
-      <c r="AL7" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AS7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
+      <c r="AB7" s="4" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>Isabela City</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="4" t="n">
         <v>126002</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>Isabela Central Elementary Pilot School</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>CITY OF ISABELA (Capital)</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="J8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="4" t="n">
         <v>18000000</v>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O8" s="4" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="P8" t="n">
+      <c r="P8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="R8" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="S8" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="T8" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="U8" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="V8" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="W8" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="X8" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Y8" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="Z8" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AA8" s="4" t="inlineStr">
         <is>
           <t>With RTA waiting for SARO</t>
         </is>
       </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AR8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>not yet started</t>
-        </is>
-      </c>
+      <c r="AB8" s="4" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="4" t="n">
         <v>124588</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>Lapayanbaja ES</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>POLANCO</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="J9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building with 16KW Solar PV</t>
         </is>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="4" t="n">
         <v>23015000</v>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="M9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4" t="n">
         <v>22999627.62</v>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O9" s="4" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P9" t="n">
+      <c r="P9" s="4" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" s="4" t="inlineStr">
         <is>
           <t>February 09, 2025</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R9" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S9" s="4" t="inlineStr">
         <is>
           <t>2024-026-CBZN</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="T9" s="4" t="inlineStr">
         <is>
           <t>CB-2024-037</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="U9" s="4" t="inlineStr">
         <is>
           <t>April 23, 2024</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="V9" s="4" t="inlineStr">
         <is>
           <t>May 02,2024</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="W9" s="4" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="X9" s="4" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Y9" s="4" t="inlineStr">
         <is>
           <t>July 07, 2024</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="Z9" s="4" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AA9" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AL9" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AS9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT9" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
+      <c r="AB9" s="4" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="4" t="n">
         <v>124596</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>Sianib ES</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>POLANCO</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="J10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L10" t="n">
+      <c r="L10" s="4" t="n">
         <v>24015000</v>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="M10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4" t="n">
         <v>23995323.36</v>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" s="4" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P10" t="n">
+      <c r="P10" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" s="4" t="inlineStr">
         <is>
           <t>February 09, 2025</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R10" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" s="4" t="inlineStr">
         <is>
           <t>2024-025-CBZN</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="T10" s="4" t="inlineStr">
         <is>
           <t>CB-2024-036</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="U10" s="4" t="inlineStr">
         <is>
           <t>April 23, 2024</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="V10" s="4" t="inlineStr">
         <is>
           <t>May 02,2024</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="W10" s="4" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="X10" s="4" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Y10" s="4" t="inlineStr">
         <is>
           <t>July 07, 2024</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="Z10" s="4" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AA10" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AL10" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AS10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT10" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
+      <c r="AB10" s="4" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AU2:AU10" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AB2:AB10" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region IX/Region IX_GABALDON.xlsx
+++ b/Filtered_By_Region/Region IX/Region IX_GABALDON.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,14 +64,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -435,1206 +447,1237 @@
   <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="41" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="77" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="17" customWidth="1" min="15" max="15"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="27" customWidth="1" min="18" max="18"/>
+    <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="20" max="20"/>
+    <col width="31" customWidth="1" min="21" max="21"/>
+    <col width="27" customWidth="1" min="22" max="22"/>
+    <col width="21" customWidth="1" min="23" max="23"/>
+    <col width="33" customWidth="1" min="24" max="24"/>
+    <col width="31" customWidth="1" min="25" max="25"/>
+    <col width="32" customWidth="1" min="26" max="26"/>
+    <col width="27" customWidth="1" min="27" max="27"/>
+    <col width="28" customWidth="1" min="28" max="28"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF BUILDINGS</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AB1" s="3" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="AB1" s="4" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>126121</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Curuan CS</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="n">
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="J2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="5" t="n">
         <v>5000000</v>
       </c>
-      <c r="M2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="4" t="n">
+      <c r="M2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5" t="n">
         <v>4750000</v>
       </c>
-      <c r="O2" s="4" t="inlineStr">
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4" t="inlineStr">
+      <c r="P2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5" t="inlineStr">
         <is>
           <t>January 31,2022</t>
         </is>
       </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>February 8,2022</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>ZC-GAB-2020-B</t>
         </is>
       </c>
-      <c r="T2" s="4" t="inlineStr">
+      <c r="T2" s="5" t="inlineStr">
         <is>
           <t>ZC-GAB-2020-B</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>May 3, 2021</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>May 17, 2021</t>
         </is>
       </c>
-      <c r="W2" s="4" t="inlineStr">
+      <c r="W2" s="5" t="inlineStr">
         <is>
           <t>May 31,2021</t>
         </is>
       </c>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>July 8, 2021</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>July 30,2021</t>
         </is>
       </c>
-      <c r="Z2" s="4" t="inlineStr">
+      <c r="Z2" s="5" t="inlineStr">
         <is>
           <t>Zamboanga 3VC Constrution,INC.</t>
         </is>
       </c>
-      <c r="AA2" s="4" t="inlineStr"/>
-      <c r="AB2" s="4" t="n"/>
+      <c r="AA2" s="5" t="inlineStr"/>
+      <c r="AB2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>126189</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Mercedes CS</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
+      <c r="J3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L3" s="4" t="n">
+      <c r="L3" s="5" t="n">
         <v>8000000</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4" t="n">
+      <c r="M3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5" t="n">
         <v>7600000</v>
       </c>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="4" t="inlineStr">
+      <c r="P3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="inlineStr">
         <is>
           <t>January 31,2022</t>
         </is>
       </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="R3" s="5" t="inlineStr">
         <is>
           <t>February 5,2022</t>
         </is>
       </c>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>ZC-GAB-2020-A</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t>ZC-GAB-2020-A</t>
         </is>
       </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>May 3, 2021</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>May 17, 2021</t>
         </is>
       </c>
-      <c r="W3" s="4" t="inlineStr">
+      <c r="W3" s="5" t="inlineStr">
         <is>
           <t>May 31,2021</t>
         </is>
       </c>
-      <c r="X3" s="4" t="inlineStr">
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t>July 8, 2021</t>
         </is>
       </c>
-      <c r="Y3" s="4" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t>July 30,2021</t>
         </is>
       </c>
-      <c r="Z3" s="4" t="inlineStr">
+      <c r="Z3" s="5" t="inlineStr">
         <is>
           <t>Zamboanga 3VC Constrution,INC.</t>
         </is>
       </c>
-      <c r="AA3" s="4" t="inlineStr"/>
-      <c r="AB3" s="4" t="n"/>
+      <c r="AA3" s="5" t="inlineStr"/>
+      <c r="AB3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>126226</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Mampang Elementary School</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>ZAMBOANGA CITY</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="n">
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="inlineStr">
+      <c r="J4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="L4" s="5" t="n">
         <v>5000000</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4" t="n">
+      <c r="M4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5" t="n">
         <v>4995000</v>
       </c>
-      <c r="O4" s="4" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4" t="inlineStr">
+      <c r="P4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>January 31,2022</t>
         </is>
       </c>
-      <c r="R4" s="4" t="inlineStr">
+      <c r="R4" s="5" t="inlineStr">
         <is>
           <t>November 30,2021</t>
         </is>
       </c>
-      <c r="S4" s="4" t="inlineStr">
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>ZC-GAB-2021</t>
         </is>
       </c>
-      <c r="T4" s="4" t="inlineStr">
+      <c r="T4" s="5" t="inlineStr">
         <is>
           <t>ZC-GAB-2021</t>
         </is>
       </c>
-      <c r="U4" s="4" t="inlineStr">
+      <c r="U4" s="5" t="inlineStr">
         <is>
           <t>May 3, 2021</t>
         </is>
       </c>
-      <c r="V4" s="4" t="inlineStr">
+      <c r="V4" s="5" t="inlineStr">
         <is>
           <t>May 17, 2021</t>
         </is>
       </c>
-      <c r="W4" s="4" t="inlineStr">
+      <c r="W4" s="5" t="inlineStr">
         <is>
           <t>May 31,2021</t>
         </is>
       </c>
-      <c r="X4" s="4" t="inlineStr">
+      <c r="X4" s="5" t="inlineStr">
         <is>
           <t>July 8, 2021</t>
         </is>
       </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>July 30,2021</t>
         </is>
       </c>
-      <c r="Z4" s="4" t="inlineStr">
+      <c r="Z4" s="5" t="inlineStr">
         <is>
           <t>Zamboanga 3VC Constrution,INC.</t>
         </is>
       </c>
-      <c r="AA4" s="4" t="inlineStr"/>
-      <c r="AB4" s="4" t="n"/>
+      <c r="AA4" s="5" t="inlineStr"/>
+      <c r="AB4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>124369</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>Katipunan Central School</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>KATIPUNAN</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="H5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4" t="inlineStr">
+      <c r="J5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="L5" s="5" t="n">
         <v>17112890.01</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4" t="n">
+      <c r="M5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5" t="n">
         <v>17093932.97</v>
       </c>
-      <c r="O5" s="4" t="inlineStr">
+      <c r="O5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="5" t="n">
+      <c r="P5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7" t="n">
         <v>45118</v>
       </c>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="R5" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S5" s="4" t="inlineStr">
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>2023-7-CBZN</t>
         </is>
       </c>
-      <c r="T5" s="4" t="inlineStr">
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>CB-2023-007</t>
         </is>
       </c>
-      <c r="U5" s="5" t="n">
+      <c r="U5" s="7" t="n">
         <v>45050</v>
       </c>
-      <c r="V5" s="4" t="inlineStr">
+      <c r="V5" s="5" t="inlineStr">
         <is>
           <t>4/14/2023</t>
         </is>
       </c>
-      <c r="W5" s="4" t="inlineStr">
+      <c r="W5" s="5" t="inlineStr">
         <is>
           <t>4/27/2023</t>
         </is>
       </c>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>5/30/2023</t>
         </is>
       </c>
-      <c r="Y5" s="5" t="n">
+      <c r="Y5" s="7" t="n">
         <v>45113</v>
       </c>
-      <c r="Z5" s="4" t="inlineStr">
+      <c r="Z5" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA5" s="4" t="inlineStr"/>
-      <c r="AB5" s="4" t="n"/>
+      <c r="AA5" s="5" t="inlineStr"/>
+      <c r="AB5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>125371</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>San Pablo CES</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>SAN PABLO</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="J6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L6" s="4" t="n">
+      <c r="L6" s="5" t="n">
         <v>4907365.3</v>
       </c>
-      <c r="M6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4" t="n">
+      <c r="M6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5" t="n">
         <v>4877195.13</v>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="5" t="n">
+      <c r="P6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7" t="n">
         <v>45027</v>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R6" s="5" t="inlineStr">
         <is>
           <t>November 4, 2023</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t>ZDS-23-RG-01</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T6" s="5" t="inlineStr">
         <is>
           <t>ZDS-23-RG-01</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U6" s="5" t="inlineStr">
         <is>
           <t>4/13/2023</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V6" s="5" t="inlineStr">
         <is>
           <t>4/26/2023</t>
         </is>
       </c>
-      <c r="W6" s="5" t="n">
+      <c r="W6" s="7" t="n">
         <v>45143</v>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X6" s="5" t="inlineStr">
         <is>
           <t>5/22/2023</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>5/31/2023</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z6" s="5" t="inlineStr">
         <is>
           <t>ASCS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="inlineStr"/>
-      <c r="AB6" s="4" t="n"/>
+      <c r="AA6" s="5" t="inlineStr"/>
+      <c r="AB6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Dapitan City</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>125916</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Ilaya Elementary School</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>DAPITAN CITY</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="n">
+      <c r="H7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
+      <c r="J7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L7" s="4" t="n">
+      <c r="L7" s="5" t="n">
         <v>5000000</v>
       </c>
-      <c r="M7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="4" t="n">
+      <c r="M7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5" t="n">
         <v>4956744.84</v>
       </c>
-      <c r="O7" s="4" t="inlineStr">
+      <c r="O7" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P7" s="4" t="n">
+      <c r="P7" s="5" t="n">
         <v>0.8</v>
       </c>
-      <c r="Q7" s="5" t="n">
+      <c r="Q7" s="7" t="n">
         <v>45694</v>
       </c>
-      <c r="R7" s="4" t="inlineStr">
+      <c r="R7" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S7" s="4" t="inlineStr">
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>CY2024-10-12</t>
         </is>
       </c>
-      <c r="T7" s="4" t="inlineStr">
+      <c r="T7" s="5" t="inlineStr">
         <is>
           <t>CY2024-10-12</t>
         </is>
       </c>
-      <c r="U7" s="4" t="inlineStr">
+      <c r="U7" s="5" t="inlineStr">
         <is>
           <t>8/22/2024</t>
         </is>
       </c>
-      <c r="V7" s="5" t="n">
+      <c r="V7" s="7" t="n">
         <v>45546</v>
       </c>
-      <c r="W7" s="4" t="inlineStr">
+      <c r="W7" s="5" t="inlineStr">
         <is>
           <t>9/25/2024</t>
         </is>
       </c>
-      <c r="X7" s="4" t="inlineStr">
+      <c r="X7" s="5" t="inlineStr">
         <is>
           <t>10/16/2024</t>
         </is>
       </c>
-      <c r="Y7" s="5" t="n">
+      <c r="Y7" s="7" t="n">
         <v>45717</v>
       </c>
-      <c r="Z7" s="4" t="inlineStr">
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>Stars and Stripes Construction</t>
         </is>
       </c>
-      <c r="AA7" s="4" t="inlineStr">
+      <c r="AA7" s="5" t="inlineStr">
         <is>
           <t>ON-GOING</t>
         </is>
       </c>
-      <c r="AB7" s="4" t="n"/>
+      <c r="AB7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Isabela City</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>126002</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>Isabela Central Elementary Pilot School</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>CITY OF ISABELA (Capital)</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="n">
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="4" t="inlineStr">
+      <c r="J8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="L8" s="5" t="n">
         <v>18000000</v>
       </c>
-      <c r="M8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4" t="inlineStr">
+      <c r="M8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O8" s="4" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="P8" s="4" t="n">
+      <c r="P8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" s="4" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="R8" s="4" t="inlineStr">
+      <c r="R8" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S8" s="4" t="inlineStr">
+      <c r="S8" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="T8" s="4" t="inlineStr">
+      <c r="T8" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U8" s="4" t="inlineStr">
+      <c r="U8" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="V8" s="4" t="inlineStr">
+      <c r="V8" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="W8" s="4" t="inlineStr">
+      <c r="W8" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="X8" s="4" t="inlineStr">
+      <c r="X8" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Y8" s="4" t="inlineStr">
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Z8" s="4" t="inlineStr">
+      <c r="Z8" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AA8" s="4" t="inlineStr">
+      <c r="AA8" s="5" t="inlineStr">
         <is>
           <t>With RTA waiting for SARO</t>
         </is>
       </c>
-      <c r="AB8" s="4" t="n"/>
+      <c r="AB8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>124588</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>Lapayanbaja ES</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>POLANCO</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4" t="inlineStr">
+      <c r="J9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building with 16KW Solar PV</t>
         </is>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="L9" s="5" t="n">
         <v>23015000</v>
       </c>
-      <c r="M9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="4" t="n">
+      <c r="M9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5" t="n">
         <v>22999627.62</v>
       </c>
-      <c r="O9" s="4" t="inlineStr">
+      <c r="O9" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P9" s="4" t="n">
+      <c r="P9" s="5" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q9" s="4" t="inlineStr">
+      <c r="Q9" s="5" t="inlineStr">
         <is>
           <t>February 09, 2025</t>
         </is>
       </c>
-      <c r="R9" s="4" t="inlineStr">
+      <c r="R9" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S9" s="4" t="inlineStr">
+      <c r="S9" s="5" t="inlineStr">
         <is>
           <t>2024-026-CBZN</t>
         </is>
       </c>
-      <c r="T9" s="4" t="inlineStr">
+      <c r="T9" s="5" t="inlineStr">
         <is>
           <t>CB-2024-037</t>
         </is>
       </c>
-      <c r="U9" s="4" t="inlineStr">
+      <c r="U9" s="5" t="inlineStr">
         <is>
           <t>April 23, 2024</t>
         </is>
       </c>
-      <c r="V9" s="4" t="inlineStr">
+      <c r="V9" s="5" t="inlineStr">
         <is>
           <t>May 02,2024</t>
         </is>
       </c>
-      <c r="W9" s="4" t="inlineStr">
+      <c r="W9" s="5" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="X9" s="4" t="inlineStr">
+      <c r="X9" s="5" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="Y9" s="4" t="inlineStr">
+      <c r="Y9" s="5" t="inlineStr">
         <is>
           <t>July 07, 2024</t>
         </is>
       </c>
-      <c r="Z9" s="4" t="inlineStr">
+      <c r="Z9" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA9" s="4" t="inlineStr">
+      <c r="AA9" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AB9" s="4" t="n"/>
+      <c r="AB9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>124596</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>Sianib ES</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>POLANCO</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="n">
+      <c r="H10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4" t="inlineStr">
+      <c r="J10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="L10" s="5" t="n">
         <v>24015000</v>
       </c>
-      <c r="M10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="4" t="n">
+      <c r="M10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5" t="n">
         <v>23995323.36</v>
       </c>
-      <c r="O10" s="4" t="inlineStr">
+      <c r="O10" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P10" s="4" t="n">
+      <c r="P10" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="Q10" s="4" t="inlineStr">
+      <c r="Q10" s="5" t="inlineStr">
         <is>
           <t>February 09, 2025</t>
         </is>
       </c>
-      <c r="R10" s="4" t="inlineStr">
+      <c r="R10" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S10" s="4" t="inlineStr">
+      <c r="S10" s="5" t="inlineStr">
         <is>
           <t>2024-025-CBZN</t>
         </is>
       </c>
-      <c r="T10" s="4" t="inlineStr">
+      <c r="T10" s="5" t="inlineStr">
         <is>
           <t>CB-2024-036</t>
         </is>
       </c>
-      <c r="U10" s="4" t="inlineStr">
+      <c r="U10" s="5" t="inlineStr">
         <is>
           <t>April 23, 2024</t>
         </is>
       </c>
-      <c r="V10" s="4" t="inlineStr">
+      <c r="V10" s="5" t="inlineStr">
         <is>
           <t>May 02,2024</t>
         </is>
       </c>
-      <c r="W10" s="4" t="inlineStr">
+      <c r="W10" s="5" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="X10" s="4" t="inlineStr">
+      <c r="X10" s="5" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="Y10" s="4" t="inlineStr">
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>July 07, 2024</t>
         </is>
       </c>
-      <c r="Z10" s="4" t="inlineStr">
+      <c r="Z10" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA10" s="4" t="inlineStr">
+      <c r="AA10" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AB10" s="4" t="n"/>
+      <c r="AB10" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/Region IX/Region IX_GABALDON.xlsx
+++ b/Filtered_By_Region/Region IX/Region IX_GABALDON.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">

--- a/Filtered_By_Region/Region IX/Region IX_GABALDON.xlsx
+++ b/Filtered_By_Region/Region IX/Region IX_GABALDON.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,1235 +453,1268 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="21" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="41" customWidth="1" min="5" max="5"/>
-    <col width="27" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="24" customWidth="1" min="10" max="10"/>
-    <col width="77" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="41" customWidth="1" min="6" max="6"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="24" customWidth="1" min="11" max="11"/>
+    <col width="77" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="17" customWidth="1" min="15" max="15"/>
-    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="17" customWidth="1" min="16" max="16"/>
     <col width="26" customWidth="1" min="17" max="17"/>
-    <col width="27" customWidth="1" min="18" max="18"/>
-    <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="26" customWidth="1" min="18" max="18"/>
+    <col width="27" customWidth="1" min="19" max="19"/>
     <col width="15" customWidth="1" min="20" max="20"/>
-    <col width="31" customWidth="1" min="21" max="21"/>
-    <col width="27" customWidth="1" min="22" max="22"/>
-    <col width="21" customWidth="1" min="23" max="23"/>
-    <col width="33" customWidth="1" min="24" max="24"/>
-    <col width="31" customWidth="1" min="25" max="25"/>
-    <col width="32" customWidth="1" min="26" max="26"/>
-    <col width="27" customWidth="1" min="27" max="27"/>
-    <col width="28" customWidth="1" min="28" max="28"/>
+    <col width="15" customWidth="1" min="21" max="21"/>
+    <col width="31" customWidth="1" min="22" max="22"/>
+    <col width="27" customWidth="1" min="23" max="23"/>
+    <col width="21" customWidth="1" min="24" max="24"/>
+    <col width="33" customWidth="1" min="25" max="25"/>
+    <col width="31" customWidth="1" min="26" max="26"/>
+    <col width="32" customWidth="1" min="27" max="27"/>
+    <col width="27" customWidth="1" min="28" max="28"/>
+    <col width="28" customWidth="1" min="29" max="29"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF BUILDINGS</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Target Completion Date </t>
-        </is>
-      </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>Actual Date of Completion</t>
+          <t xml:space="preserve"> TARGET COMPLETION DATE </t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>ACTUAL DATE OF COMPLETION</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
         <is>
-          <t>Contract ID</t>
+          <t>PROJECT ID</t>
         </is>
       </c>
       <c r="U1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Invitation to Bid</t>
+          <t>CONTRACT ID</t>
         </is>
       </c>
       <c r="V1" s="3" t="inlineStr">
         <is>
-          <t>Pre-Submission Conference</t>
+          <t>ISSUANCE OF INVITATION TO BID</t>
         </is>
       </c>
       <c r="W1" s="3" t="inlineStr">
         <is>
-          <t>Bid Opening</t>
+          <t>PRE-SUBMISSION CONFERENCE</t>
         </is>
       </c>
       <c r="X1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Resolution to Award</t>
+          <t>BID OPENING</t>
         </is>
       </c>
       <c r="Y1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Notice to Proceed</t>
+          <t>ISSUANCE OF RESOLUTION TO AWARD</t>
         </is>
       </c>
       <c r="Z1" s="3" t="inlineStr">
         <is>
-          <t>Name of Contractor</t>
+          <t>ISSUANCE OF NOTICE TO PROCEED</t>
         </is>
       </c>
       <c r="AA1" s="3" t="inlineStr">
         <is>
-          <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="AB1" s="4" t="inlineStr">
+          <t>NAME OF CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="AB1" s="3" t="inlineStr">
+        <is>
+          <t>OTHER REMARKS</t>
+        </is>
+      </c>
+      <c r="AC1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>126121</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Curuan CS</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="H2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="5" t="inlineStr">
+      <c r="K2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="M2" s="5" t="n">
         <v>5000000</v>
       </c>
-      <c r="M2" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5" t="n">
         <v>4750000</v>
       </c>
-      <c r="O2" s="5" t="inlineStr">
+      <c r="P2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="5" t="inlineStr">
+      <c r="Q2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>January 31,2022</t>
         </is>
       </c>
-      <c r="R2" s="5" t="inlineStr">
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>February 8,2022</t>
         </is>
       </c>
-      <c r="S2" s="5" t="inlineStr">
+      <c r="T2" s="5" t="inlineStr">
         <is>
           <t>ZC-GAB-2020-B</t>
         </is>
       </c>
-      <c r="T2" s="5" t="inlineStr">
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>ZC-GAB-2020-B</t>
         </is>
       </c>
-      <c r="U2" s="5" t="inlineStr">
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>May 3, 2021</t>
         </is>
       </c>
-      <c r="V2" s="5" t="inlineStr">
+      <c r="W2" s="5" t="inlineStr">
         <is>
           <t>May 17, 2021</t>
         </is>
       </c>
-      <c r="W2" s="5" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>May 31,2021</t>
         </is>
       </c>
-      <c r="X2" s="5" t="inlineStr">
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>July 8, 2021</t>
         </is>
       </c>
-      <c r="Y2" s="5" t="inlineStr">
+      <c r="Z2" s="5" t="inlineStr">
         <is>
           <t>July 30,2021</t>
         </is>
       </c>
-      <c r="Z2" s="5" t="inlineStr">
+      <c r="AA2" s="5" t="inlineStr">
         <is>
           <t>Zamboanga 3VC Constrution,INC.</t>
         </is>
       </c>
-      <c r="AA2" s="5" t="inlineStr"/>
-      <c r="AB2" s="6" t="n"/>
+      <c r="AB2" s="5" t="inlineStr"/>
+      <c r="AC2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>126189</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Mercedes CS</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="H3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="K3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="M3" s="5" t="n">
         <v>8000000</v>
       </c>
-      <c r="M3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="n">
         <v>7600000</v>
       </c>
-      <c r="O3" s="5" t="inlineStr">
+      <c r="P3" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5" t="inlineStr">
+      <c r="Q3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="5" t="inlineStr">
         <is>
           <t>January 31,2022</t>
         </is>
       </c>
-      <c r="R3" s="5" t="inlineStr">
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>February 5,2022</t>
         </is>
       </c>
-      <c r="S3" s="5" t="inlineStr">
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t>ZC-GAB-2020-A</t>
         </is>
       </c>
-      <c r="T3" s="5" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>ZC-GAB-2020-A</t>
         </is>
       </c>
-      <c r="U3" s="5" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>May 3, 2021</t>
         </is>
       </c>
-      <c r="V3" s="5" t="inlineStr">
+      <c r="W3" s="5" t="inlineStr">
         <is>
           <t>May 17, 2021</t>
         </is>
       </c>
-      <c r="W3" s="5" t="inlineStr">
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t>May 31,2021</t>
         </is>
       </c>
-      <c r="X3" s="5" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t>July 8, 2021</t>
         </is>
       </c>
-      <c r="Y3" s="5" t="inlineStr">
+      <c r="Z3" s="5" t="inlineStr">
         <is>
           <t>July 30,2021</t>
         </is>
       </c>
-      <c r="Z3" s="5" t="inlineStr">
+      <c r="AA3" s="5" t="inlineStr">
         <is>
           <t>Zamboanga 3VC Constrution,INC.</t>
         </is>
       </c>
-      <c r="AA3" s="5" t="inlineStr"/>
-      <c r="AB3" s="6" t="n"/>
+      <c r="AB3" s="5" t="inlineStr"/>
+      <c r="AC3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>147</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Zamboanga City</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>126226</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Mampang Elementary School</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>ZAMBOANGA CITY</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="H4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5" t="inlineStr">
+      <c r="K4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L4" s="5" t="n">
+      <c r="M4" s="5" t="n">
         <v>5000000</v>
       </c>
-      <c r="M4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5" t="n">
         <v>4995000</v>
       </c>
-      <c r="O4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="5" t="inlineStr">
         <is>
           <t>January 31,2022</t>
         </is>
       </c>
-      <c r="R4" s="5" t="inlineStr">
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>November 30,2021</t>
         </is>
       </c>
-      <c r="S4" s="5" t="inlineStr">
+      <c r="T4" s="5" t="inlineStr">
         <is>
           <t>ZC-GAB-2021</t>
         </is>
       </c>
-      <c r="T4" s="5" t="inlineStr">
+      <c r="U4" s="5" t="inlineStr">
         <is>
           <t>ZC-GAB-2021</t>
         </is>
       </c>
-      <c r="U4" s="5" t="inlineStr">
+      <c r="V4" s="5" t="inlineStr">
         <is>
           <t>May 3, 2021</t>
         </is>
       </c>
-      <c r="V4" s="5" t="inlineStr">
+      <c r="W4" s="5" t="inlineStr">
         <is>
           <t>May 17, 2021</t>
         </is>
       </c>
-      <c r="W4" s="5" t="inlineStr">
+      <c r="X4" s="5" t="inlineStr">
         <is>
           <t>May 31,2021</t>
         </is>
       </c>
-      <c r="X4" s="5" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>July 8, 2021</t>
         </is>
       </c>
-      <c r="Y4" s="5" t="inlineStr">
+      <c r="Z4" s="5" t="inlineStr">
         <is>
           <t>July 30,2021</t>
         </is>
       </c>
-      <c r="Z4" s="5" t="inlineStr">
+      <c r="AA4" s="5" t="inlineStr">
         <is>
           <t>Zamboanga 3VC Constrution,INC.</t>
         </is>
       </c>
-      <c r="AA4" s="5" t="inlineStr"/>
-      <c r="AB4" s="6" t="n"/>
+      <c r="AB4" s="5" t="inlineStr"/>
+      <c r="AC4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>194</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>124369</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Katipunan Central School</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>KATIPUNAN</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="H5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="J5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
+      <c r="K5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L5" s="5" t="n">
+      <c r="M5" s="5" t="n">
         <v>17112890.01</v>
       </c>
-      <c r="M5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5" t="n">
         <v>17093932.97</v>
       </c>
-      <c r="O5" s="5" t="inlineStr">
+      <c r="P5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="7" t="n">
+      <c r="Q5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="7" t="n">
         <v>45118</v>
       </c>
-      <c r="R5" s="5" t="inlineStr">
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S5" s="5" t="inlineStr">
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>2023-7-CBZN</t>
         </is>
       </c>
-      <c r="T5" s="5" t="inlineStr">
+      <c r="U5" s="5" t="inlineStr">
         <is>
           <t>CB-2023-007</t>
         </is>
       </c>
-      <c r="U5" s="7" t="n">
+      <c r="V5" s="7" t="n">
         <v>45050</v>
       </c>
-      <c r="V5" s="5" t="inlineStr">
+      <c r="W5" s="5" t="inlineStr">
         <is>
           <t>4/14/2023</t>
         </is>
       </c>
-      <c r="W5" s="5" t="inlineStr">
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>4/27/2023</t>
         </is>
       </c>
-      <c r="X5" s="5" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>5/30/2023</t>
         </is>
       </c>
-      <c r="Y5" s="7" t="n">
+      <c r="Z5" s="7" t="n">
         <v>45113</v>
       </c>
-      <c r="Z5" s="5" t="inlineStr">
+      <c r="AA5" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA5" s="5" t="inlineStr"/>
-      <c r="AB5" s="6" t="n"/>
+      <c r="AB5" s="5" t="inlineStr"/>
+      <c r="AC5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>195</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Sur</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>125371</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>San Pablo CES</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>SAN PABLO</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="H6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5" t="inlineStr">
+      <c r="K6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L6" s="5" t="n">
+      <c r="M6" s="5" t="n">
         <v>4907365.3</v>
       </c>
-      <c r="M6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5" t="n">
         <v>4877195.13</v>
       </c>
-      <c r="O6" s="5" t="inlineStr">
+      <c r="P6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="7" t="n">
+      <c r="Q6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="7" t="n">
         <v>45027</v>
       </c>
-      <c r="R6" s="5" t="inlineStr">
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t>November 4, 2023</t>
         </is>
       </c>
-      <c r="S6" s="5" t="inlineStr">
+      <c r="T6" s="5" t="inlineStr">
         <is>
           <t>ZDS-23-RG-01</t>
         </is>
       </c>
-      <c r="T6" s="5" t="inlineStr">
+      <c r="U6" s="5" t="inlineStr">
         <is>
           <t>ZDS-23-RG-01</t>
         </is>
       </c>
-      <c r="U6" s="5" t="inlineStr">
+      <c r="V6" s="5" t="inlineStr">
         <is>
           <t>4/13/2023</t>
         </is>
       </c>
-      <c r="V6" s="5" t="inlineStr">
+      <c r="W6" s="5" t="inlineStr">
         <is>
           <t>4/26/2023</t>
         </is>
       </c>
-      <c r="W6" s="7" t="n">
+      <c r="X6" s="7" t="n">
         <v>45143</v>
       </c>
-      <c r="X6" s="5" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>5/22/2023</t>
         </is>
       </c>
-      <c r="Y6" s="5" t="inlineStr">
+      <c r="Z6" s="5" t="inlineStr">
         <is>
           <t>5/31/2023</t>
         </is>
       </c>
-      <c r="Z6" s="5" t="inlineStr">
+      <c r="AA6" s="5" t="inlineStr">
         <is>
           <t>ASCS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA6" s="5" t="inlineStr"/>
-      <c r="AB6" s="6" t="n"/>
+      <c r="AB6" s="5" t="inlineStr"/>
+      <c r="AC6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>246</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Dapitan City</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>125916</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Ilaya Elementary School</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>DAPITAN CITY</t>
         </is>
       </c>
-      <c r="G7" s="5" t="inlineStr">
+      <c r="H7" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5" t="inlineStr">
+      <c r="K7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L7" s="5" t="n">
+      <c r="M7" s="5" t="n">
         <v>5000000</v>
       </c>
-      <c r="M7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5" t="n">
         <v>4956744.84</v>
       </c>
-      <c r="O7" s="5" t="inlineStr">
+      <c r="P7" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P7" s="5" t="n">
+      <c r="Q7" s="5" t="n">
         <v>0.8</v>
       </c>
-      <c r="Q7" s="7" t="n">
+      <c r="R7" s="7" t="n">
         <v>45694</v>
       </c>
-      <c r="R7" s="5" t="inlineStr">
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S7" s="5" t="inlineStr">
+      <c r="T7" s="5" t="inlineStr">
         <is>
           <t>CY2024-10-12</t>
         </is>
       </c>
-      <c r="T7" s="5" t="inlineStr">
+      <c r="U7" s="5" t="inlineStr">
         <is>
           <t>CY2024-10-12</t>
         </is>
       </c>
-      <c r="U7" s="5" t="inlineStr">
+      <c r="V7" s="5" t="inlineStr">
         <is>
           <t>8/22/2024</t>
         </is>
       </c>
-      <c r="V7" s="7" t="n">
+      <c r="W7" s="7" t="n">
         <v>45546</v>
       </c>
-      <c r="W7" s="5" t="inlineStr">
+      <c r="X7" s="5" t="inlineStr">
         <is>
           <t>9/25/2024</t>
         </is>
       </c>
-      <c r="X7" s="5" t="inlineStr">
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>10/16/2024</t>
         </is>
       </c>
-      <c r="Y7" s="7" t="n">
+      <c r="Z7" s="7" t="n">
         <v>45717</v>
       </c>
-      <c r="Z7" s="5" t="inlineStr">
+      <c r="AA7" s="5" t="inlineStr">
         <is>
           <t>Stars and Stripes Construction</t>
         </is>
       </c>
-      <c r="AA7" s="5" t="inlineStr">
+      <c r="AB7" s="5" t="inlineStr">
         <is>
           <t>ON-GOING</t>
         </is>
       </c>
-      <c r="AB7" s="6" t="n"/>
+      <c r="AC7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="5" t="n">
+        <v>247</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Isabela City</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>126002</v>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>Isabela Central Elementary Pilot School</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>CITY OF ISABELA (Capital)</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="H8" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H8" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5" t="inlineStr">
+      <c r="K8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L8" s="5" t="n">
+      <c r="M8" s="5" t="n">
         <v>18000000</v>
       </c>
-      <c r="M8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="P8" s="5" t="n">
+      <c r="Q8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" s="5" t="inlineStr">
+      <c r="R8" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="R8" s="5" t="inlineStr">
+      <c r="S8" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S8" s="5" t="inlineStr">
+      <c r="T8" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="T8" s="5" t="inlineStr">
+      <c r="U8" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U8" s="5" t="inlineStr">
+      <c r="V8" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="V8" s="5" t="inlineStr">
+      <c r="W8" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="W8" s="5" t="inlineStr">
+      <c r="X8" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="X8" s="5" t="inlineStr">
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Y8" s="5" t="inlineStr">
+      <c r="Z8" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Z8" s="5" t="inlineStr">
+      <c r="AA8" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AA8" s="5" t="inlineStr">
+      <c r="AB8" s="5" t="inlineStr">
         <is>
           <t>With RTA waiting for SARO</t>
         </is>
       </c>
-      <c r="AB8" s="6" t="n"/>
+      <c r="AC8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="5" t="n">
+        <v>248</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>124588</v>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>Lapayanbaja ES</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>POLANCO</t>
         </is>
       </c>
-      <c r="G9" s="5" t="inlineStr">
+      <c r="H9" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H9" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5" t="inlineStr">
+      <c r="K9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building with 16KW Solar PV</t>
         </is>
       </c>
-      <c r="L9" s="5" t="n">
+      <c r="M9" s="5" t="n">
         <v>23015000</v>
       </c>
-      <c r="M9" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5" t="n">
         <v>22999627.62</v>
       </c>
-      <c r="O9" s="5" t="inlineStr">
+      <c r="P9" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P9" s="5" t="n">
+      <c r="Q9" s="5" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q9" s="5" t="inlineStr">
+      <c r="R9" s="5" t="inlineStr">
         <is>
           <t>February 09, 2025</t>
         </is>
       </c>
-      <c r="R9" s="5" t="inlineStr">
+      <c r="S9" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S9" s="5" t="inlineStr">
+      <c r="T9" s="5" t="inlineStr">
         <is>
           <t>2024-026-CBZN</t>
         </is>
       </c>
-      <c r="T9" s="5" t="inlineStr">
+      <c r="U9" s="5" t="inlineStr">
         <is>
           <t>CB-2024-037</t>
         </is>
       </c>
-      <c r="U9" s="5" t="inlineStr">
+      <c r="V9" s="5" t="inlineStr">
         <is>
           <t>April 23, 2024</t>
         </is>
       </c>
-      <c r="V9" s="5" t="inlineStr">
+      <c r="W9" s="5" t="inlineStr">
         <is>
           <t>May 02,2024</t>
         </is>
       </c>
-      <c r="W9" s="5" t="inlineStr">
+      <c r="X9" s="5" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="X9" s="5" t="inlineStr">
+      <c r="Y9" s="5" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="Y9" s="5" t="inlineStr">
+      <c r="Z9" s="5" t="inlineStr">
         <is>
           <t>July 07, 2024</t>
         </is>
       </c>
-      <c r="Z9" s="5" t="inlineStr">
+      <c r="AA9" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA9" s="5" t="inlineStr">
+      <c r="AB9" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AB9" s="6" t="n"/>
+      <c r="AC9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="5" t="n">
+        <v>249</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
         <v>124596</v>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Sianib ES</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>POLANCO</t>
         </is>
       </c>
-      <c r="G10" s="5" t="inlineStr">
+      <c r="H10" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H10" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5" t="inlineStr">
+      <c r="K10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L10" s="5" t="n">
+      <c r="M10" s="5" t="n">
         <v>24015000</v>
       </c>
-      <c r="M10" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5" t="n">
         <v>23995323.36</v>
       </c>
-      <c r="O10" s="5" t="inlineStr">
+      <c r="P10" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P10" s="5" t="n">
+      <c r="Q10" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="Q10" s="5" t="inlineStr">
+      <c r="R10" s="5" t="inlineStr">
         <is>
           <t>February 09, 2025</t>
         </is>
       </c>
-      <c r="R10" s="5" t="inlineStr">
+      <c r="S10" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S10" s="5" t="inlineStr">
+      <c r="T10" s="5" t="inlineStr">
         <is>
           <t>2024-025-CBZN</t>
         </is>
       </c>
-      <c r="T10" s="5" t="inlineStr">
+      <c r="U10" s="5" t="inlineStr">
         <is>
           <t>CB-2024-036</t>
         </is>
       </c>
-      <c r="U10" s="5" t="inlineStr">
+      <c r="V10" s="5" t="inlineStr">
         <is>
           <t>April 23, 2024</t>
         </is>
       </c>
-      <c r="V10" s="5" t="inlineStr">
+      <c r="W10" s="5" t="inlineStr">
         <is>
           <t>May 02,2024</t>
         </is>
       </c>
-      <c r="W10" s="5" t="inlineStr">
+      <c r="X10" s="5" t="inlineStr">
         <is>
           <t>May 15, 2024</t>
         </is>
       </c>
-      <c r="X10" s="5" t="inlineStr">
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="Y10" s="5" t="inlineStr">
+      <c r="Z10" s="5" t="inlineStr">
         <is>
           <t>July 07, 2024</t>
         </is>
       </c>
-      <c r="Z10" s="5" t="inlineStr">
+      <c r="AA10" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="AA10" s="5" t="inlineStr">
+      <c r="AB10" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AB10" s="6" t="n"/>
+      <c r="AC10" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AB2:AB10" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AC2:AC10" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
